--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/40.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/40.xlsx
@@ -479,13 +479,13 @@
         <v>-10.71175084583771</v>
       </c>
       <c r="E2" t="n">
-        <v>-17.91804896472061</v>
+        <v>-17.74745195910648</v>
       </c>
       <c r="F2" t="n">
-        <v>2.037009465403044</v>
+        <v>2.316831773430922</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.858088558441381</v>
+        <v>-9.073928433601942</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-10.15215194867428</v>
       </c>
       <c r="E3" t="n">
-        <v>-18.39664851394352</v>
+        <v>-18.19995398967379</v>
       </c>
       <c r="F3" t="n">
-        <v>1.980976557701332</v>
+        <v>2.240602378361984</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.864610493601846</v>
+        <v>-9.048622934058791</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.569915100283062</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.83030831204574</v>
+        <v>-18.62905234436919</v>
       </c>
       <c r="F4" t="n">
-        <v>2.140030618102676</v>
+        <v>2.393691850385692</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.968516556544389</v>
+        <v>-9.111950240005941</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-9.019739232825405</v>
       </c>
       <c r="E5" t="n">
-        <v>-19.32628339167366</v>
+        <v>-19.12023130826066</v>
       </c>
       <c r="F5" t="n">
-        <v>2.553181032398191</v>
+        <v>2.80422175700054</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.7678717147262</v>
+        <v>-8.884577197646326</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.509350638984701</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.79712897600564</v>
+        <v>-19.62201452804648</v>
       </c>
       <c r="F6" t="n">
-        <v>2.68436775365812</v>
+        <v>2.935731152713685</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.565227269099442</v>
+        <v>-8.65096578252453</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.042098727666273</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.45692489773015</v>
+        <v>-20.27352847213843</v>
       </c>
       <c r="F7" t="n">
-        <v>2.821079052677662</v>
+        <v>3.072706458104041</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.273945128975516</v>
+        <v>-8.360597886684717</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.631392389205501</v>
       </c>
       <c r="E8" t="n">
-        <v>-21.01546948724084</v>
+        <v>-20.83477179343967</v>
       </c>
       <c r="F8" t="n">
-        <v>3.06014171045607</v>
+        <v>3.285847601474065</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.168186132430412</v>
+        <v>-8.236734897711427</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.268017764483347</v>
       </c>
       <c r="E9" t="n">
-        <v>-21.41397243696308</v>
+        <v>-21.25263521035489</v>
       </c>
       <c r="F9" t="n">
-        <v>3.407207418931495</v>
+        <v>3.60199523052312</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.5250102986122</v>
+        <v>-8.550853588910712</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.958757646487769</v>
       </c>
       <c r="E10" t="n">
-        <v>-22.04844330311697</v>
+        <v>-21.8927479904332</v>
       </c>
       <c r="F10" t="n">
-        <v>3.740417681946083</v>
+        <v>3.945614189157371</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.191096018608775</v>
+        <v>-8.189115970827675</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.684917248406326</v>
       </c>
       <c r="E11" t="n">
-        <v>-22.99296031775</v>
+        <v>-22.80951011308275</v>
       </c>
       <c r="F11" t="n">
-        <v>3.852483497349508</v>
+        <v>4.073525275816467</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.949862641781459</v>
+        <v>-7.926517633991939</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.44800822275319</v>
       </c>
       <c r="E12" t="n">
-        <v>-23.85420776742574</v>
+        <v>-23.65861326970107</v>
       </c>
       <c r="F12" t="n">
-        <v>4.320669461945884</v>
+        <v>4.540880109245466</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.567454302665105</v>
+        <v>-7.501780273421836</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.22538274288412</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.43848808908388</v>
+        <v>-24.23220133334127</v>
       </c>
       <c r="F13" t="n">
-        <v>5.136854935329266</v>
+        <v>5.352440582132748</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.326186702789719</v>
+        <v>-7.226186956333841</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.016545635108225</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.60272196132293</v>
+        <v>-25.39894326610305</v>
       </c>
       <c r="F14" t="n">
-        <v>5.422470716494437</v>
+        <v>5.625736065993293</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.661995563891856</v>
+        <v>-6.53934504862156</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.79932994961944</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.03102340789902</v>
+        <v>-25.82568511948859</v>
       </c>
       <c r="F15" t="n">
-        <v>5.829358312993434</v>
+        <v>6.000092210799838</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.278594756381518</v>
+        <v>-6.136275766485625</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.576698811485775</v>
       </c>
       <c r="E16" t="n">
-        <v>-27.04478831579504</v>
+        <v>-26.81794573068048</v>
       </c>
       <c r="F16" t="n">
-        <v>6.129186437120727</v>
+        <v>6.295759790083386</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.037503160753341</v>
+        <v>-5.870905362756348</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.337665124071559</v>
       </c>
       <c r="E17" t="n">
-        <v>-28.100838244083</v>
+        <v>-27.86225959798442</v>
       </c>
       <c r="F17" t="n">
-        <v>6.570737092306151</v>
+        <v>6.697157031870837</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.809259875171417</v>
+        <v>-5.588839000576557</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.096721016396674</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.61118700389965</v>
+        <v>-28.38419530407565</v>
       </c>
       <c r="F18" t="n">
-        <v>6.916541437009911</v>
+        <v>7.058503529404521</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.683206611121749</v>
+        <v>-5.429232482399252</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.856360439669634</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.63041293246601</v>
+        <v>-29.38508745689108</v>
       </c>
       <c r="F19" t="n">
-        <v>7.064761458194172</v>
+        <v>7.205359517672912</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.378655706361016</v>
+        <v>-5.1584499480683</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-4.640408042648617</v>
       </c>
       <c r="E20" t="n">
-        <v>-30.25429909875303</v>
+        <v>-29.98499059999245</v>
       </c>
       <c r="F20" t="n">
-        <v>7.27943286071354</v>
+        <v>7.411836944683331</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.278910188262218</v>
+        <v>-5.052143382754101</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-4.458116215322973</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.95784429842612</v>
+        <v>-30.71257993543703</v>
       </c>
       <c r="F21" t="n">
-        <v>7.589327449979812</v>
+        <v>7.703940437960899</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.190888508630281</v>
+        <v>-4.966879102995104</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-4.332542825196373</v>
       </c>
       <c r="E22" t="n">
-        <v>-31.23616812584929</v>
+        <v>-30.95867787409693</v>
       </c>
       <c r="F22" t="n">
-        <v>7.530229134972544</v>
+        <v>7.638383744882436</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.267205905822824</v>
+        <v>-5.082548116459446</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-4.267775741893904</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.64138123749636</v>
+        <v>-31.39895983200039</v>
       </c>
       <c r="F23" t="n">
-        <v>7.651408059175897</v>
+        <v>7.754155427490982</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.87666714828679</v>
+        <v>-4.711408938171331</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.276269253229202</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.73945960425355</v>
+        <v>-31.48216828437185</v>
       </c>
       <c r="F24" t="n">
-        <v>7.919790091135193</v>
+        <v>8.014455931099267</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.06379388611796</v>
+        <v>-4.894834697804246</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.350205417534723</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.90213397423984</v>
+        <v>-31.64052321679122</v>
       </c>
       <c r="F25" t="n">
-        <v>7.867922617284092</v>
+        <v>7.953206453070557</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.920844214336234</v>
+        <v>-4.767128949433561</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.487042735916902</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.7294102506386</v>
+        <v>-31.51719312956643</v>
       </c>
       <c r="F26" t="n">
-        <v>7.495546520258649</v>
+        <v>7.594363127052734</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.921196222830652</v>
+        <v>-4.785506726246294</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.665021207127538</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.94040023098718</v>
+        <v>-31.71887932984727</v>
       </c>
       <c r="F27" t="n">
-        <v>7.537430642087509</v>
+        <v>7.626782131587246</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.489247577131849</v>
+        <v>-4.400859221984894</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.867982465648271</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.57382494060933</v>
+        <v>-31.37987070468852</v>
       </c>
       <c r="F28" t="n">
-        <v>7.461264804107842</v>
+        <v>7.571252791592827</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.634387523989953</v>
+        <v>-4.583810747951718</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.067412388550309</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.37354432980273</v>
+        <v>-31.18089301421195</v>
       </c>
       <c r="F29" t="n">
-        <v>7.097229352797354</v>
+        <v>7.213519270133793</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.311820628924639</v>
+        <v>-4.287253369418391</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.244931026919805</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.51582420764369</v>
+        <v>-31.32907636784471</v>
       </c>
       <c r="F30" t="n">
-        <v>6.890473252395521</v>
+        <v>6.974182827970838</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.421231713599329</v>
+        <v>-4.420107242019938</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.376698203272148</v>
       </c>
       <c r="E31" t="n">
-        <v>-31.06188969806437</v>
+        <v>-30.91832890042428</v>
       </c>
       <c r="F31" t="n">
-        <v>6.805189416609057</v>
+        <v>6.910674628769613</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.331181096117622</v>
+        <v>-4.3497886562531</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.452219802731427</v>
       </c>
       <c r="E32" t="n">
-        <v>-31.05795404753651</v>
+        <v>-30.90799598441106</v>
       </c>
       <c r="F32" t="n">
-        <v>6.551709077580117</v>
+        <v>6.689109726567895</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.359307552622983</v>
+        <v>-4.416029810292931</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.461081762821249</v>
       </c>
       <c r="E33" t="n">
-        <v>-30.51318667937677</v>
+        <v>-30.39091506213866</v>
       </c>
       <c r="F33" t="n">
-        <v>6.580603108163585</v>
+        <v>6.705106557036441</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.987835921867919</v>
+        <v>-4.085909399618233</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.406605128921645</v>
       </c>
       <c r="E34" t="n">
-        <v>-30.14725429340192</v>
+        <v>-30.03670407012724</v>
       </c>
       <c r="F34" t="n">
-        <v>6.449611947178332</v>
+        <v>6.6222574466697</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.915038609619555</v>
+        <v>-4.049364073288044</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.292261797453019</v>
       </c>
       <c r="E35" t="n">
-        <v>-29.61782862879057</v>
+        <v>-29.54866140414089</v>
       </c>
       <c r="F35" t="n">
-        <v>6.555155827421292</v>
+        <v>6.698560176841641</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.968822574162487</v>
+        <v>-4.121814266048856</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.13269404179285</v>
       </c>
       <c r="E36" t="n">
-        <v>-29.30864294552</v>
+        <v>-29.23110574111416</v>
       </c>
       <c r="F36" t="n">
-        <v>6.468199951286343</v>
+        <v>6.643280176197434</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.053549063166122</v>
+        <v>-4.252560976690763</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.940651796264465</v>
       </c>
       <c r="E37" t="n">
-        <v>-29.06534885229828</v>
+        <v>-29.06219544286912</v>
       </c>
       <c r="F37" t="n">
-        <v>6.626867780145201</v>
+        <v>6.810503767073393</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.881245794155439</v>
+        <v>-4.114275417460073</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.736416664435306</v>
       </c>
       <c r="E38" t="n">
-        <v>-28.359496041384</v>
+        <v>-28.35718843014282</v>
       </c>
       <c r="F38" t="n">
-        <v>6.278134920328157</v>
+        <v>6.484294561892227</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.804375939186936</v>
+        <v>-4.073491322176269</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.53529179091489</v>
       </c>
       <c r="E39" t="n">
-        <v>-27.79463485500125</v>
+        <v>-27.79910829628448</v>
       </c>
       <c r="F39" t="n">
-        <v>6.234031189381718</v>
+        <v>6.441960651431611</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.823521290077774</v>
+        <v>-4.098327477060197</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.356034312744028</v>
       </c>
       <c r="E40" t="n">
-        <v>-27.41934490988312</v>
+        <v>-27.43032806380965</v>
       </c>
       <c r="F40" t="n">
-        <v>6.312489971581969</v>
+        <v>6.539339890206823</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.600157233349031</v>
+        <v>-3.916480866645295</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.209281417674177</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.18570416072012</v>
+        <v>-27.20723290245859</v>
       </c>
       <c r="F41" t="n">
-        <v>6.172297699673183</v>
+        <v>6.390406074019992</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.924029493247812</v>
+        <v>-4.277089124142075</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.105987087769907</v>
       </c>
       <c r="E42" t="n">
-        <v>-26.56578053449874</v>
+        <v>-26.58106601446815</v>
       </c>
       <c r="F42" t="n">
-        <v>6.030731616834793</v>
+        <v>6.279093165674073</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.736853865347973</v>
+        <v>-4.075119361462951</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.047950899980513</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.09665343608048</v>
+        <v>-26.14416969382003</v>
       </c>
       <c r="F43" t="n">
-        <v>5.909841144036587</v>
+        <v>6.193828885915076</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.678831131851426</v>
+        <v>-4.047217799273468</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.036515948904796</v>
       </c>
       <c r="E44" t="n">
-        <v>-25.36249083090333</v>
+        <v>-25.41811795103509</v>
       </c>
       <c r="F44" t="n">
-        <v>6.021691843137868</v>
+        <v>6.319696367703801</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.815869994331052</v>
+        <v>-4.174287976751454</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.065301019829956</v>
       </c>
       <c r="E45" t="n">
-        <v>-24.89343951209151</v>
+        <v>-24.92822968495648</v>
       </c>
       <c r="F45" t="n">
-        <v>6.009303099737106</v>
+        <v>6.338259926777478</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.912070982451338</v>
+        <v>-4.29116946391879</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.128159519988481</v>
       </c>
       <c r="E46" t="n">
-        <v>-24.35771191762871</v>
+        <v>-24.43163859046333</v>
       </c>
       <c r="F46" t="n">
-        <v>5.934569740769444</v>
+        <v>6.244498553083782</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.933959066194516</v>
+        <v>-4.282784817142031</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.214160860479558</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.33426424069498</v>
+        <v>-24.38427389193666</v>
       </c>
       <c r="F47" t="n">
-        <v>6.114675864739723</v>
+        <v>6.421974391359663</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.04404483381684</v>
+        <v>-4.393907054220141</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.314578199058832</v>
       </c>
       <c r="E48" t="n">
-        <v>-23.8159708447196</v>
+        <v>-23.85768874031498</v>
       </c>
       <c r="F48" t="n">
-        <v>6.072434845409578</v>
+        <v>6.38457837783463</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.140768945671885</v>
+        <v>-4.468743082332008</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.419535301325564</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.06419803680782</v>
+        <v>-23.11535660466322</v>
       </c>
       <c r="F49" t="n">
-        <v>6.216763217127775</v>
+        <v>6.533727310323604</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.333004695678981</v>
+        <v>-4.645158006117767</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.523013754209241</v>
       </c>
       <c r="E50" t="n">
-        <v>-22.9266409396003</v>
+        <v>-22.96245780390732</v>
       </c>
       <c r="F50" t="n">
-        <v>6.081455063079036</v>
+        <v>6.385859297633761</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.514689968867274</v>
+        <v>-4.78077416759912</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.620100536075037</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.47298021440553</v>
+        <v>-22.48187820690331</v>
       </c>
       <c r="F51" t="n">
-        <v>6.183449524336615</v>
+        <v>6.467975056970465</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.284852867046736</v>
+        <v>-4.568381042279734</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.709620687953032</v>
       </c>
       <c r="E52" t="n">
-        <v>-21.84778868328505</v>
+        <v>-21.8914768486478</v>
       </c>
       <c r="F52" t="n">
-        <v>6.095955857446306</v>
+        <v>6.385341062905868</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.475861476330236</v>
+        <v>-4.753053498663713</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.79224910790646</v>
       </c>
       <c r="E53" t="n">
-        <v>-21.43321556799126</v>
+        <v>-21.45807127890265</v>
       </c>
       <c r="F53" t="n">
-        <v>6.454784516443529</v>
+        <v>6.739583833461925</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.509018720901653</v>
+        <v>-4.782905774593096</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.871463970959957</v>
       </c>
       <c r="E54" t="n">
-        <v>-20.82745783916676</v>
+        <v>-20.84436402491255</v>
       </c>
       <c r="F54" t="n">
-        <v>6.587310825584992</v>
+        <v>6.834479456748744</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.514069064995176</v>
+        <v>-4.786088518063457</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.952954779028159</v>
       </c>
       <c r="E55" t="n">
-        <v>-20.52296071348157</v>
+        <v>-20.55185474406503</v>
       </c>
       <c r="F55" t="n">
-        <v>6.486592395119677</v>
+        <v>6.75273037292706</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.964586158774522</v>
+        <v>-5.174627671790922</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.042524153698063</v>
       </c>
       <c r="E56" t="n">
-        <v>-19.97073760984979</v>
+        <v>-20.00506821606927</v>
       </c>
       <c r="F56" t="n">
-        <v>6.357815954245138</v>
+        <v>6.626193097197566</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.009188568421387</v>
+        <v>-5.234410447759558</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.145346767634305</v>
       </c>
       <c r="E57" t="n">
-        <v>-19.73983959353913</v>
+        <v>-19.75300080002486</v>
       </c>
       <c r="F57" t="n">
-        <v>6.389017596069789</v>
+        <v>6.655556472440257</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.264614732183358</v>
+        <v>-5.457823394556971</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.262119053364227</v>
       </c>
       <c r="E58" t="n">
-        <v>-19.35534853749747</v>
+        <v>-19.38645239918478</v>
       </c>
       <c r="F58" t="n">
-        <v>6.061649696261163</v>
+        <v>6.325176944401613</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.643116754813047</v>
+        <v>-5.820832154425405</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.391337807782803</v>
       </c>
       <c r="E59" t="n">
-        <v>-18.79749329795501</v>
+        <v>-18.81193542423987</v>
       </c>
       <c r="F59" t="n">
-        <v>6.223695828865059</v>
+        <v>6.493075218225206</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.441552779703877</v>
+        <v>-5.643801215774415</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.526493069104464</v>
       </c>
       <c r="E60" t="n">
-        <v>-18.18937906782066</v>
+        <v>-18.21048002145826</v>
       </c>
       <c r="F60" t="n">
-        <v>6.013761873999732</v>
+        <v>6.309537011434352</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.837493889827851</v>
+        <v>-5.995584815876413</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.661519144312068</v>
       </c>
       <c r="E61" t="n">
-        <v>-17.91792185054207</v>
+        <v>-17.95705835051173</v>
       </c>
       <c r="F61" t="n">
-        <v>5.753495593439514</v>
+        <v>6.025192372054579</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.840319735796928</v>
+        <v>-6.027221579312219</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.786535928874365</v>
       </c>
       <c r="E62" t="n">
-        <v>-17.66221212438182</v>
+        <v>-17.69163905671378</v>
       </c>
       <c r="F62" t="n">
-        <v>5.784843905470173</v>
+        <v>6.085938282375997</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.923828862090702</v>
+        <v>-6.091257791255072</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.895661259332253</v>
       </c>
       <c r="E63" t="n">
-        <v>-17.13172065627348</v>
+        <v>-17.15856130397284</v>
       </c>
       <c r="F63" t="n">
-        <v>5.660091117247104</v>
+        <v>5.939693419965971</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.842891353408925</v>
+        <v>-5.985058784091945</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.981243579148671</v>
       </c>
       <c r="E64" t="n">
-        <v>-17.20873718144799</v>
+        <v>-17.20968564878017</v>
       </c>
       <c r="F64" t="n">
-        <v>5.515611186316034</v>
+        <v>5.805803077908638</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.063542011326531</v>
+        <v>-6.22421922200769</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.04285506449265</v>
       </c>
       <c r="E65" t="n">
-        <v>-16.82563460335654</v>
+        <v>-16.8354077280835</v>
       </c>
       <c r="F65" t="n">
-        <v>5.58090876203055</v>
+        <v>5.86728722826696</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.950410392426119</v>
+        <v>-6.113722777808546</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.078046249390939</v>
       </c>
       <c r="E66" t="n">
-        <v>-16.7993219683988</v>
+        <v>-16.79900418295245</v>
       </c>
       <c r="F66" t="n">
-        <v>5.592011696625314</v>
+        <v>5.88074177516471</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.087644815180422</v>
+        <v>-6.226253048864328</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.092000249570494</v>
       </c>
       <c r="E67" t="n">
-        <v>-16.61341748228436</v>
+        <v>-16.61550508821653</v>
       </c>
       <c r="F67" t="n">
-        <v>5.30955421389617</v>
+        <v>5.604757337527361</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.051710614708597</v>
+        <v>-6.18553739967666</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.085728573951184</v>
       </c>
       <c r="E68" t="n">
-        <v>-16.45738482812677</v>
+        <v>-16.4310624151553</v>
       </c>
       <c r="F68" t="n">
-        <v>5.178709723116925</v>
+        <v>5.47747204374723</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.125128830829058</v>
+        <v>-6.265164654518103</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.068395705345945</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.44115821433548</v>
+        <v>-16.40668093790999</v>
       </c>
       <c r="F69" t="n">
-        <v>5.332185426683119</v>
+        <v>5.618226551445712</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.79271058692691</v>
+        <v>-5.908819611009274</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.044000090348834</v>
       </c>
       <c r="E70" t="n">
-        <v>-16.24852156576529</v>
+        <v>-16.20377737491929</v>
       </c>
       <c r="F70" t="n">
-        <v>5.277521440904143</v>
+        <v>5.574352603822017</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.704801354452913</v>
+        <v>-5.813102634568812</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.025345634311177</v>
       </c>
       <c r="E71" t="n">
-        <v>-16.29149104711861</v>
+        <v>-16.25022782916185</v>
       </c>
       <c r="F71" t="n">
-        <v>5.066986138194184</v>
+        <v>5.357754932597084</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.449966760521838</v>
+        <v>-5.566383792036817</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.017294304924205</v>
       </c>
       <c r="E72" t="n">
-        <v>-16.27718581302602</v>
+        <v>-16.22176892018954</v>
       </c>
       <c r="F72" t="n">
-        <v>5.034141790062249</v>
+        <v>5.340716743665886</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.439269613497028</v>
+        <v>-5.569654537630782</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.032492367555889</v>
       </c>
       <c r="E73" t="n">
-        <v>-16.24844823066229</v>
+        <v>-16.17745007294095</v>
       </c>
       <c r="F73" t="n">
-        <v>5.090199142798297</v>
+        <v>5.383539554813193</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.443542605498711</v>
+        <v>-5.569664315644516</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.071276228574221</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.45074066779463</v>
+        <v>-16.35048669298167</v>
       </c>
       <c r="F74" t="n">
-        <v>5.049141263129945</v>
+        <v>5.304958547441269</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.060484028469059</v>
+        <v>-5.200392737979564</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.139989358734603</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.71261054260719</v>
+        <v>-16.60750667298226</v>
       </c>
       <c r="F75" t="n">
-        <v>4.977458644447238</v>
+        <v>5.215118157254841</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.088972271482572</v>
+        <v>-5.223542185494406</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.229938201311986</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.80992133528627</v>
+        <v>-16.69082512800822</v>
       </c>
       <c r="F76" t="n">
-        <v>4.848432864222485</v>
+        <v>5.109730725231622</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.841417408776334</v>
+        <v>-5.016052734062535</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.338582349542203</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.98233705145489</v>
+        <v>-16.85529620801811</v>
       </c>
       <c r="F77" t="n">
-        <v>4.868404457273833</v>
+        <v>5.129995658694984</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.560348403997393</v>
+        <v>-4.728241788814119</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.448367283660652</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.4097780328224</v>
+        <v>-17.25646855548968</v>
       </c>
       <c r="F78" t="n">
-        <v>4.666273357368102</v>
+        <v>4.935608745666446</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.946118026272534</v>
+        <v>-4.178771196048415</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.551600256878583</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.62720194620784</v>
+        <v>-17.4262686529845</v>
       </c>
       <c r="F79" t="n">
-        <v>4.815984525646771</v>
+        <v>5.074559209831036</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.704982429582555</v>
+        <v>-3.948435415527451</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-6.630035671128556</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.00474572349162</v>
+        <v>-17.82056216779433</v>
       </c>
       <c r="F80" t="n">
-        <v>4.60363051238232</v>
+        <v>4.883467487430798</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.320877605083381</v>
+        <v>-3.560737170981096</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-6.68019551495264</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.90214737894819</v>
+        <v>-18.70976495873509</v>
       </c>
       <c r="F81" t="n">
-        <v>4.559707674689957</v>
+        <v>4.830759104398588</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.983350349005307</v>
+        <v>-3.250911027810962</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.689354077384691</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.64092031760084</v>
+        <v>-19.43015034256127</v>
       </c>
       <c r="F82" t="n">
-        <v>4.459360808746527</v>
+        <v>4.712014905614958</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.804715816101969</v>
+        <v>-3.095949066157226</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.660370499099582</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.22863761108642</v>
+        <v>-20.03033949256435</v>
       </c>
       <c r="F83" t="n">
-        <v>4.222879546593851</v>
+        <v>4.486279680555761</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.612489844108607</v>
+        <v>-2.947303701375544</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.587051148859343</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.48624173646982</v>
+        <v>-21.24930090767165</v>
       </c>
       <c r="F84" t="n">
-        <v>3.977368288757983</v>
+        <v>4.250595326522392</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.116881439995705</v>
+        <v>-2.467437899374108</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.478866972019778</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.28932467144987</v>
+        <v>-22.06837089510651</v>
       </c>
       <c r="F85" t="n">
-        <v>4.07215635389373</v>
+        <v>4.353264470727606</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.145863472702777</v>
+        <v>-2.484603202483846</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.334620488604648</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.19490074638792</v>
+        <v>-22.96653523563432</v>
       </c>
       <c r="F86" t="n">
-        <v>3.74913967019666</v>
+        <v>4.030238009016801</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.829735399681189</v>
+        <v>-2.20953300913061</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.167663506891365</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.95573288402409</v>
+        <v>-23.71396171644142</v>
       </c>
       <c r="F87" t="n">
-        <v>3.617977393971065</v>
+        <v>3.894851630858192</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.793341632563874</v>
+        <v>-2.179387392789212</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-5.978816577581266</v>
       </c>
       <c r="E88" t="n">
-        <v>-25.20047892134751</v>
+        <v>-24.96877910791067</v>
       </c>
       <c r="F88" t="n">
-        <v>3.761367076370814</v>
+        <v>4.02287027566836</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.618305408714586</v>
+        <v>-2.06985408294285</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-5.782627692368131</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.56054196364084</v>
+        <v>-26.32082417894227</v>
       </c>
       <c r="F89" t="n">
-        <v>3.270408117788348</v>
+        <v>3.528053890667898</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.490844110687246</v>
+        <v>-1.98131416858302</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.578482875523848</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.82678740866151</v>
+        <v>-27.60820480064861</v>
       </c>
       <c r="F90" t="n">
-        <v>3.334038542161246</v>
+        <v>3.601154321342011</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.513196650082781</v>
+        <v>-2.026610817204987</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.378285950505376</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.53928184446671</v>
+        <v>-29.3073058021419</v>
       </c>
       <c r="F91" t="n">
-        <v>2.968712393037893</v>
+        <v>3.218682425136388</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.717254018694077</v>
+        <v>-2.243052040210179</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.177471481120032</v>
       </c>
       <c r="E92" t="n">
-        <v>-31.17429529944505</v>
+        <v>-30.96640494945009</v>
       </c>
       <c r="F92" t="n">
-        <v>2.658475573290938</v>
+        <v>2.925073117743811</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.916202375129447</v>
+        <v>-2.444254228811197</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.984852189855698</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.7506773395719</v>
+        <v>-32.55303679247343</v>
       </c>
       <c r="F93" t="n">
-        <v>2.398639525335009</v>
+        <v>2.660338284907233</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.279475141368696</v>
+        <v>-2.843138521069054</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.793609311470227</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.71128887387303</v>
+        <v>-34.53132942010876</v>
       </c>
       <c r="F94" t="n">
-        <v>1.843175010150468</v>
+        <v>2.090524534568296</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.107367432632689</v>
+        <v>-2.696150529615256</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.611890044247973</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.9587555525801</v>
+        <v>-36.75906162259753</v>
       </c>
       <c r="F95" t="n">
-        <v>1.480039136103493</v>
+        <v>1.70918199894893</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.201407479717798</v>
+        <v>-2.815481409222916</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.43442519689042</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.72936561301232</v>
+        <v>-38.54559028938842</v>
       </c>
       <c r="F96" t="n">
-        <v>1.24643749899543</v>
+        <v>1.47833287270694</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.461791096442821</v>
+        <v>-3.088014208012223</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.26970817205357</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.78952954964101</v>
+        <v>-40.61933833159683</v>
       </c>
       <c r="F97" t="n">
-        <v>0.7583581654575767</v>
+        <v>0.9969417005630261</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.736655951507646</v>
+        <v>-3.385588499973868</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.117801565876938</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.42417632910432</v>
+        <v>-42.32259498892699</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3768054025429334</v>
+        <v>0.5913399128700282</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.000554764169981</v>
+        <v>-3.679051137160438</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.988886001989604</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.92215327516868</v>
+        <v>-44.82968748829472</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1729729282475154</v>
+        <v>0.3742924530133391</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.157433216515548</v>
+        <v>-3.840901709489657</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.891544214995969</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.48870220929667</v>
+        <v>-47.40955041037303</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.619921316421884</v>
+        <v>-0.4246983832191032</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.607104512106917</v>
+        <v>-4.216602331184603</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.831527036754265</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.24159695334662</v>
+        <v>-49.17576280912846</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.6306037964260932</v>
+        <v>-0.4665140589518267</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.964261130755655</v>
+        <v>-4.595989264057203</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.829158728382963</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.39307898248726</v>
+        <v>-51.38192349106868</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.9789162016525818</v>
+        <v>-0.8529704957539858</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.236881931668567</v>
+        <v>-4.853155914263796</v>
       </c>
     </row>
   </sheetData>
